--- a/working/game.xlsx
+++ b/working/game.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julienfougery/Dev/lua/snakeLove2/working/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF039375-5EFC-CB4A-ADD0-1D4AE04CA1C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD910BF6-2AD7-2D41-A77B-02062D0B24CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7260" yWindow="5580" windowWidth="28800" windowHeight="16500" activeTab="1" xr2:uid="{5A4E495A-27A4-204E-849E-8BA1618C9D70}"/>
+    <workbookView xWindow="15880" yWindow="5260" windowWidth="28800" windowHeight="16500" activeTab="1" xr2:uid="{5A4E495A-27A4-204E-849E-8BA1618C9D70}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>X</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>I</t>
+  </si>
+  <si>
+    <t>sna</t>
   </si>
 </sst>
 </file>
@@ -217,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -253,6 +256,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8166,10 +8172,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E016FF90-55A6-D84E-B75F-D7F3D11B3C76}">
-  <dimension ref="E1:U11"/>
+  <dimension ref="E1:U19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="256" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="256" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8382,7 +8388,114 @@
         <v>8</v>
       </c>
     </row>
+    <row r="14" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="H14" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="K14" s="13">
+        <v>1</v>
+      </c>
+      <c r="L14" s="13"/>
+      <c r="N14" s="13">
+        <v>2</v>
+      </c>
+      <c r="O14" s="13"/>
+    </row>
+    <row r="15" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="H15" s="4">
+        <v>5</v>
+      </c>
+      <c r="I15" s="4">
+        <v>2</v>
+      </c>
+      <c r="K15" s="4">
+        <v>6</v>
+      </c>
+      <c r="L15" s="4">
+        <v>2</v>
+      </c>
+      <c r="N15" s="4">
+        <v>6</v>
+      </c>
+      <c r="O15" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="H16" s="4">
+        <v>5</v>
+      </c>
+      <c r="I16" s="4">
+        <v>3</v>
+      </c>
+      <c r="K16" s="4">
+        <v>5</v>
+      </c>
+      <c r="L16" s="4">
+        <v>2</v>
+      </c>
+      <c r="N16" s="4">
+        <v>5</v>
+      </c>
+      <c r="O16" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H17" s="4">
+        <v>5</v>
+      </c>
+      <c r="I17" s="4">
+        <v>4</v>
+      </c>
+      <c r="K17" s="4">
+        <v>5</v>
+      </c>
+      <c r="L17" s="4">
+        <v>3</v>
+      </c>
+      <c r="N17" s="4">
+        <v>5</v>
+      </c>
+      <c r="O17" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H18" s="4">
+        <v>5</v>
+      </c>
+      <c r="I18" s="4">
+        <v>5</v>
+      </c>
+      <c r="K18" s="4">
+        <v>5</v>
+      </c>
+      <c r="L18" s="4">
+        <v>4</v>
+      </c>
+      <c r="N18" s="4">
+        <v>5</v>
+      </c>
+      <c r="O18" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="K19" s="4">
+        <v>5</v>
+      </c>
+      <c r="L19" s="4">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="N14:O14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>